--- a/Mathematical Model/parameters.xlsx
+++ b/Mathematical Model/parameters.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christinehamakawa/Documents/Bamboo Ceiling Research/Mathematical Model/No Scarcity Model/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christinehamakawa/Documents/Bamboo Ceiling Research/Mathematical Model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E26FCA-2195-6141-A85E-7AE9DF5B1600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF119898-85D0-6F47-AF6E-344E7397F775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1000" yWindow="460" windowWidth="28800" windowHeight="17540" firstSheet="5" activeTab="11" xr2:uid="{19EC9F53-F1E9-A444-AADF-386EA9A74D15}"/>
+    <workbookView xWindow="11460" yWindow="740" windowWidth="18100" windowHeight="17540" activeTab="1" xr2:uid="{19EC9F53-F1E9-A444-AADF-386EA9A74D15}"/>
   </bookViews>
   <sheets>
     <sheet name="a" sheetId="5" r:id="rId1"/>
@@ -769,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10BB7EA9-662C-E44F-8F35-3AE05C026755}">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:M1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1459,7 +1459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED02EDE7-9727-F04F-A819-723A9F75DB2F}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:M1"/>
     </sheetView>
   </sheetViews>
@@ -1638,8 +1638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE15E51-8144-B84B-9CEB-AE4C43EC5DC9}">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:M1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2514,7 +2514,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:M1"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
